--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>ral@rambler.ru</t>
-  </si>
-  <si>
-    <t>79267775477</t>
   </si>
   <si>
     <t>Легкова</t>
@@ -412,7 +409,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,8 +467,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
+      <c r="G2" s="3">
+        <v>79267775488</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -482,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -497,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>79258887711</v>
+        <v>79258887788</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>second_name</t>
   </si>
@@ -67,6 +64,57 @@
   </si>
   <si>
     <t>el.legkova@mail.ru</t>
+  </si>
+  <si>
+    <t>+7(926)7775488</t>
+  </si>
+  <si>
+    <t>+7(925)8887788</t>
+  </si>
+  <si>
+    <t>Сероусов</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>+7(925)1210909</t>
+  </si>
+  <si>
+    <t>ser@gmai.com</t>
+  </si>
+  <si>
+    <t>Алексеева</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Ивановна</t>
+  </si>
+  <si>
+    <t>+7(985)2231233</t>
+  </si>
+  <si>
+    <t>lola@mail.ru</t>
+  </si>
+  <si>
+    <t>Ситникова</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>+7(980)1112233</t>
+  </si>
+  <si>
+    <t>olga.sitnik@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -122,8 +170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -406,23 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,39 +492,33 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>79267775488</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -484,28 +526,97 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>79258887788</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>second_name</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>olga.sitnik@mail.ru</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>+7(999)2233255</t>
+  </si>
+  <si>
+    <t>marog@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,128 +510,152 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>